--- a/src/test/resources/Import Sample Test.xlsx
+++ b/src/test/resources/Import Sample Test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Victor\Desktop\TIP\backend-tip\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58CBFE24-7ABB-4492-BB67-EF838565E2DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF50552-B123-4A35-8C88-25AC2D1D2174}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{5C8D9C40-CB1B-43C9-A79C-5280D339B0FD}"/>
+    <workbookView xWindow="2265" yWindow="2055" windowWidth="15375" windowHeight="8325" xr2:uid="{5C8D9C40-CB1B-43C9-A79C-5280D339B0FD}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Importar" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Nombre Materia</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Hora de Inicio</t>
@@ -428,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CE6078D-BB8E-4E0E-A114-951A06B4DF6C}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,16 +447,16 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -468,16 +465,16 @@
         <v>2</v>
       </c>
       <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -485,19 +482,19 @@
         <v>102</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C2">
         <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>2019</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1">
         <v>0.5</v>
@@ -506,15 +503,10 @@
         <v>0.625</v>
       </c>
       <c r="I2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
